--- a/medicine/Mort/Grove_Street_Cemetery/Grove_Street_Cemetery.xlsx
+++ b/medicine/Mort/Grove_Street_Cemetery/Grove_Street_Cemetery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Grove Street Cemetery ou Grove Street Burial Ground  à New Haven dans le Connecticut est un cimetière proche du campus de l'Université Yale. Il est consacré en 1796 en tant que New Haven Burying Ground et incorporé en octobre 1797 pour remplacer le cimetière surpeuplé situé sur le New Haven Green[1]. Il doit à sa proximité avec l'Université, qu'un grand nombre d'hommes et de femmes remarquables y aient élu leur dernière demeure, comme l'un des pères fondateurs des États-Unis Roger Sherman, le théologien Jedidiah Morse, l'éditeur Jeremiah Evarts, le mathématicien Elias Loomis, l'astronome Ida Barney ou encore le monument commémorant la disparition du jazzman Glenn Miller.
+Le Grove Street Cemetery ou Grove Street Burial Ground  à New Haven dans le Connecticut est un cimetière proche du campus de l'Université Yale. Il est consacré en 1796 en tant que New Haven Burying Ground et incorporé en octobre 1797 pour remplacer le cimetière surpeuplé situé sur le New Haven Green. Il doit à sa proximité avec l'Université, qu'un grand nombre d'hommes et de femmes remarquables y aient élu leur dernière demeure, comme l'un des pères fondateurs des États-Unis Roger Sherman, le théologien Jedidiah Morse, l'éditeur Jeremiah Evarts, le mathématicien Elias Loomis, l'astronome Ida Barney ou encore le monument commémorant la disparition du jazzman Glenn Miller.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste de personnalités enterrées dans le cimetière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>James Rowland Angell (1869–1949), président de l'université Yale ;
 Kan'ichi Asakawa (1873–1948), historien ;
@@ -623,7 +637,7 @@
 Theodore Winthrop (1828–1861),
 Melancthon Taylor Woolsey (1717–1758),
 Theodore Dwight Woolsey (1812–1889), abolitionniste, Président de l'université Yale.
-David Wooster (1711–1777), enterré à Danbury (Connecticut), mais avec un monument dédié au Grove Street Cemetery[2]. Major-Général, au 7e rang derrière Washington. Mort au combat ;
+David Wooster (1711–1777), enterré à Danbury (Connecticut), mais avec un monument dédié au Grove Street Cemetery. Major-Général, au 7e rang derrière Washington. Mort au combat ;
 Mary Clabaugh Wright (1917–1970), éducatrice et historienne, la première femme avec un engagement complet comme professeur à Yale.</t>
         </is>
       </c>
